--- a/services/notification/src/utils/ProductListBelowThreshold.xlsx
+++ b/services/notification/src/utils/ProductListBelowThreshold.xlsx
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/services/notification/src/utils/ProductListBelowThreshold.xlsx
+++ b/services/notification/src/utils/ProductListBelowThreshold.xlsx
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
